--- a/docs/odh/shr-core-Organization-extension.xlsx
+++ b/docs/odh/shr-core-Organization-extension.xlsx
@@ -137,8 +137,8 @@
     <t>Organization</t>
   </si>
   <si>
-    <t>A social or legal structure formed by human beings.
-Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here.</t>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action. Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
+Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here. Other required attributes come from STU 3 mapping to us-core-organization.</t>
   </si>
   <si>
     <t>1</t>
@@ -194,13 +194,13 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-extension"/&gt;</t>
   </si>
   <si>
     <t>Extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -359,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
